--- a/out/domingo - salida.xlsx/data_resampled.xlsx
+++ b/out/domingo - salida.xlsx/data_resampled.xlsx
@@ -606,52 +606,52 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -664,52 +664,52 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -719,43 +719,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
         <v>8</v>
       </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6</v>
-      </c>
       <c r="N6" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
@@ -764,10 +764,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -780,22 +780,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
@@ -804,16 +804,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N7" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -838,40 +838,40 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N8" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -896,52 +896,52 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>22</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>30</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
       <c r="N9" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -957,49 +957,49 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>9</v>
       </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
       <c r="N10" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1012,25 +1012,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1039,13 +1039,13 @@
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N11" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1067,28 +1067,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1100,22 +1100,22 @@
         <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N12" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1128,52 +1128,52 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1186,52 +1186,52 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" t="n">
         <v>8</v>
       </c>
-      <c r="I14" t="n">
-        <v>5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>6</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
       <c r="N14" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1244,40 +1244,40 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
@@ -1286,10 +1286,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1299,55 +1299,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N16" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1357,43 +1357,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1402,10 +1402,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1427,43 +1427,43 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N18" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1473,43 +1473,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N19" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1518,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1534,52 +1534,52 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>15</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>9</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>47</v>
-      </c>
-      <c r="G20" t="n">
-        <v>5</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>17</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>7</v>
       </c>
-      <c r="I20" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2</v>
-      </c>
-      <c r="M20" t="n">
-        <v>6</v>
-      </c>
-      <c r="N20" t="n">
-        <v>19</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1592,52 +1592,52 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
+        <v>6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>28</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>17</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
         <v>9</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3</v>
-      </c>
-      <c r="F21" t="n">
-        <v>50</v>
-      </c>
-      <c r="G21" t="n">
-        <v>8</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4</v>
-      </c>
-      <c r="M21" t="n">
-        <v>12</v>
-      </c>
-      <c r="N21" t="n">
-        <v>25</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -1659,34 +1659,34 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" t="n">
         <v>6</v>
       </c>
-      <c r="M22" t="n">
-        <v>12</v>
-      </c>
       <c r="N22" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>5</v>
       </c>
       <c r="R22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1708,52 +1708,52 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" t="n">
         <v>7</v>
       </c>
-      <c r="I23" t="n">
-        <v>3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4</v>
-      </c>
-      <c r="M23" t="n">
-        <v>6</v>
-      </c>
       <c r="N23" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1763,55 +1763,55 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>33</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
         <v>6</v>
       </c>
-      <c r="D24" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>39</v>
-      </c>
-      <c r="G24" t="n">
-        <v>5</v>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4</v>
-      </c>
-      <c r="L24" t="n">
-        <v>7</v>
-      </c>
       <c r="M24" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N24" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1821,10 +1821,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1833,16 +1833,16 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>6</v>
       </c>
-      <c r="H25" t="n">
-        <v>15</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1851,19 +1851,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
         <v>5</v>
@@ -1882,52 +1882,52 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>4</v>
       </c>
       <c r="L26" t="n">
+        <v>4</v>
+      </c>
+      <c r="M26" t="n">
         <v>8</v>
       </c>
-      <c r="M26" t="n">
-        <v>11</v>
-      </c>
       <c r="N26" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1940,52 +1940,52 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>32</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="n">
         <v>15</v>
       </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>37</v>
-      </c>
-      <c r="G27" t="n">
-        <v>8</v>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>6</v>
-      </c>
-      <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="n">
-        <v>19</v>
-      </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1998,52 +1998,52 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N28" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
         <v>5</v>
       </c>
       <c r="R28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -2053,10 +2053,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2074,25 +2074,25 @@
         <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2114,49 +2114,49 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N30" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
         <v>3</v>
@@ -2169,25 +2169,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
         <v>6</v>
@@ -2196,16 +2196,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N31" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2214,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2230,43 +2230,43 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N32" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -2275,7 +2275,7 @@
         <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -2288,52 +2288,52 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N33" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -2346,52 +2346,52 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G34" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N34" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="O34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2401,10 +2401,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2413,43 +2413,43 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I35" t="n">
         <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>6</v>
       </c>
       <c r="N35" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2459,52 +2459,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I36" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R36" t="n">
         <v>2</v>
@@ -2520,52 +2520,52 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>10</v>
       </c>
       <c r="N37" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -2578,25 +2578,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>7</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N38" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R38" t="n">
         <v>3</v>
@@ -2633,43 +2633,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
+        <v>8</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
         <v>9</v>
       </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2</v>
-      </c>
-      <c r="M39" t="n">
-        <v>6</v>
-      </c>
       <c r="N39" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2678,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2694,43 +2694,43 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H40" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N40" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2752,40 +2752,40 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I41" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N41" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2810,52 +2810,52 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M42" t="n">
         <v>6</v>
       </c>
       <c r="N42" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2871,49 +2871,49 @@
         <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+      <c r="I43" t="n">
+        <v>8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2</v>
+      </c>
+      <c r="M43" t="n">
         <v>7</v>
       </c>
-      <c r="H43" t="n">
-        <v>3</v>
-      </c>
-      <c r="I43" t="n">
-        <v>6</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>5</v>
-      </c>
-      <c r="L43" t="n">
-        <v>6</v>
-      </c>
-      <c r="M43" t="n">
-        <v>4</v>
-      </c>
       <c r="N43" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2926,52 +2926,52 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N44" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -2981,55 +2981,55 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H45" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I45" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>6</v>
       </c>
       <c r="N45" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -3039,46 +3039,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G46" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H46" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I46" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M46" t="n">
         <v>7</v>
       </c>
       <c r="N46" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>4</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -3097,43 +3097,43 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>33</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>4</v>
+      </c>
+      <c r="M47" t="n">
         <v>7</v>
       </c>
-      <c r="D47" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>16</v>
-      </c>
-      <c r="G47" t="n">
-        <v>3</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>10</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>5</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2</v>
-      </c>
-      <c r="M47" t="n">
-        <v>11</v>
-      </c>
       <c r="N47" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O47" t="n">
         <v>1</v>
@@ -3158,52 +3158,52 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G48" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H48" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I48" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L48" t="n">
         <v>2</v>
       </c>
       <c r="M48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N48" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -3216,43 +3216,43 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I49" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>3</v>
       </c>
       <c r="M49" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N49" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>4</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -3271,55 +3271,55 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G50" t="n">
+        <v>31</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4</v>
+      </c>
+      <c r="M50" t="n">
         <v>10</v>
       </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" t="n">
-        <v>3</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2</v>
-      </c>
-      <c r="M50" t="n">
-        <v>6</v>
-      </c>
       <c r="N50" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="O50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
       </c>
       <c r="Q50" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -3332,52 +3332,52 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D51" t="n">
         <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H51" t="n">
+        <v>3</v>
+      </c>
+      <c r="I51" t="n">
         <v>6</v>
       </c>
-      <c r="I51" t="n">
-        <v>8</v>
-      </c>
       <c r="J51" t="n">
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M51" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N51" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -3390,40 +3390,40 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G52" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H52" t="n">
         <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L52" t="n">
         <v>5</v>
       </c>
       <c r="M52" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N52" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="O52" t="n">
         <v>1</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -3448,52 +3448,52 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
         <v>6</v>
       </c>
       <c r="N53" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -3515,40 +3515,40 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N54" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R54" t="n">
         <v>2</v>
@@ -3564,52 +3564,52 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N55" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
@@ -3631,13 +3631,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I56" t="n">
         <v>2</v>
@@ -3646,16 +3646,16 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L56" t="n">
         <v>3</v>
       </c>
       <c r="M56" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N56" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="O56" t="n">
         <v>1</v>
@@ -3664,10 +3664,10 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3680,52 +3680,52 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N57" t="n">
         <v>24</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -3738,52 +3738,52 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -3799,46 +3799,46 @@
         <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I59" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M59" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N59" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="O59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R59" t="n">
         <v>1</v>
@@ -3860,43 +3860,43 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G60" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I60" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
         <v>2</v>
       </c>
       <c r="M60" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N60" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R60" t="n">
         <v>1</v>
@@ -3915,49 +3915,49 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G61" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I61" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N61" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -3973,49 +3973,49 @@
         <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>2</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N62" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -4028,40 +4028,40 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>5</v>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N63" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O63" t="n">
         <v>2</v>
@@ -4070,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -4086,40 +4086,40 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N64" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O64" t="n">
         <v>1</v>
@@ -4128,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -4147,49 +4147,49 @@
         <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G65" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M65" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="O65" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -4202,49 +4202,49 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
         <v>4</v>
       </c>
       <c r="I66" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N66" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O66" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -4269,43 +4269,43 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N67" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O67" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
